--- a/FinalReport/appendices/test_procedure_HH3.xlsx
+++ b/FinalReport/appendices/test_procedure_HH3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelian\Documents\GitHub\Capstone\HH3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelian\Documents\GitHub\Capstone\FinalReport\appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -583,6 +583,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,15 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1070,6 +1070,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1083,7 +1086,7 @@
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="18"/>
+    <col min="6" max="6" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,28 +1126,28 @@
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1182,7 +1185,7 @@
       <c r="E12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1200,7 +1203,7 @@
       <c r="E13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1218,7 +1221,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="20">
+      <c r="F14" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1236,7 +1239,7 @@
       <c r="E15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1252,7 +1255,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="20">
+      <c r="F16" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1270,7 +1273,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="20">
+      <c r="F17" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1286,7 +1289,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="20">
+      <c r="F18" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1302,7 +1305,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="20">
+      <c r="F19" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1318,7 +1321,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="20">
+      <c r="F20" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1336,7 +1339,7 @@
       <c r="E21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1352,7 +1355,7 @@
         <v>60</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="20">
+      <c r="F22" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1368,7 +1371,7 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="20">
+      <c r="F23" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1384,7 +1387,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="20">
+      <c r="F24" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1400,7 +1403,7 @@
         <v>59</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="20">
+      <c r="F25" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1416,7 +1419,7 @@
         <v>59</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="20">
+      <c r="F26" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1436,7 +1439,7 @@
       <c r="E27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1454,7 +1457,7 @@
       <c r="E28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1474,7 +1477,7 @@
       <c r="E29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1492,7 +1495,7 @@
       <c r="E30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1508,7 +1511,7 @@
         <v>45</v>
       </c>
       <c r="E31" s="11"/>
-      <c r="F31" s="20">
+      <c r="F31" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1524,7 +1527,7 @@
         <v>45</v>
       </c>
       <c r="E32" s="11"/>
-      <c r="F32" s="20">
+      <c r="F32" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1540,7 +1543,7 @@
         <v>45</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="20">
+      <c r="F33" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1556,7 +1559,7 @@
         <v>45</v>
       </c>
       <c r="E34" s="11"/>
-      <c r="F34" s="20">
+      <c r="F34" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1574,7 +1577,7 @@
         <v>45</v>
       </c>
       <c r="E35" s="11"/>
-      <c r="F35" s="20">
+      <c r="F35" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1592,7 +1595,7 @@
         <v>45</v>
       </c>
       <c r="E36" s="11"/>
-      <c r="F36" s="20">
+      <c r="F36" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1608,7 +1611,7 @@
         <v>45</v>
       </c>
       <c r="E37" s="11"/>
-      <c r="F37" s="20">
+      <c r="F37" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1624,7 +1627,7 @@
         <v>45</v>
       </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="20">
+      <c r="F38" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1640,7 +1643,7 @@
         <v>45</v>
       </c>
       <c r="E39" s="11"/>
-      <c r="F39" s="20">
+      <c r="F39" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1656,7 +1659,7 @@
         <v>45</v>
       </c>
       <c r="E40" s="11"/>
-      <c r="F40" s="20">
+      <c r="F40" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1674,7 +1677,7 @@
         <v>45</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="20">
+      <c r="F41" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1690,7 +1693,7 @@
         <v>45</v>
       </c>
       <c r="E42" s="11"/>
-      <c r="F42" s="20">
+      <c r="F42" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1708,7 +1711,7 @@
         <v>45</v>
       </c>
       <c r="E43" s="11"/>
-      <c r="F43" s="20">
+      <c r="F43" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1726,7 +1729,7 @@
         <v>45</v>
       </c>
       <c r="E44" s="11"/>
-      <c r="F44" s="20">
+      <c r="F44" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1742,7 +1745,7 @@
         <v>59</v>
       </c>
       <c r="E45" s="11"/>
-      <c r="F45" s="20">
+      <c r="F45" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1756,7 +1759,7 @@
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="20">
+      <c r="F46" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1774,7 +1777,7 @@
         <v>59</v>
       </c>
       <c r="E47" s="11"/>
-      <c r="F47" s="20">
+      <c r="F47" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1790,7 +1793,7 @@
         <v>59</v>
       </c>
       <c r="E48" s="11"/>
-      <c r="F48" s="20">
+      <c r="F48" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1808,7 +1811,7 @@
         <v>45</v>
       </c>
       <c r="E49" s="11"/>
-      <c r="F49" s="20">
+      <c r="F49" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1824,7 +1827,7 @@
         <v>60</v>
       </c>
       <c r="E50" s="11"/>
-      <c r="F50" s="20">
+      <c r="F50" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1840,7 +1843,7 @@
         <v>60</v>
       </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="20">
+      <c r="F51" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1858,7 +1861,7 @@
         <v>60</v>
       </c>
       <c r="E52" s="11"/>
-      <c r="F52" s="20">
+      <c r="F52" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1870,7 +1873,7 @@
     <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
